--- a/BV.xlsx
+++ b/BV.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="41">
   <si>
     <t>Term</t>
   </si>
@@ -93,9 +93,6 @@
     <t>LAB</t>
   </si>
   <si>
-    <t>NO_ROOM</t>
-  </si>
-  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -136,6 +133,21 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
   </si>
 </sst>
 </file>
@@ -611,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,8 +739,8 @@
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="4">
-        <v>5</v>
+      <c r="J3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>20</v>
@@ -770,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>20</v>
@@ -812,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>20</v>
@@ -853,11 +865,11 @@
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="4">
-        <v>5</v>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="5">
         <v>0.35416666666666669</v>
@@ -881,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4">
         <v>1060</v>
@@ -895,11 +907,11 @@
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4">
-        <v>8</v>
+      <c r="J7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="5">
         <v>0.44444444444444442</v>
@@ -923,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4">
         <v>2160</v>
@@ -937,11 +949,11 @@
       <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4">
-        <v>2</v>
+      <c r="J8" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8" s="5">
         <v>0.4826388888888889</v>
@@ -965,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4">
         <v>2160</v>
@@ -979,11 +991,11 @@
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4">
-        <v>2</v>
+      <c r="J9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5">
         <v>0.55208333333333337</v>
@@ -1007,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4">
         <v>2160</v>
@@ -1021,11 +1033,11 @@
       <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4">
-        <v>2</v>
+      <c r="J10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="5">
         <v>0.60416666666666663</v>
@@ -1049,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4">
         <v>1100</v>
@@ -1063,11 +1075,11 @@
       <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="4">
-        <v>6</v>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L11" s="5">
         <v>0.35416666666666669</v>
@@ -1091,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4">
         <v>1100</v>
@@ -1105,11 +1117,11 @@
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="4">
-        <v>6</v>
+      <c r="J12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="5">
         <v>0.39583333333333331</v>
@@ -1148,10 +1160,10 @@
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="5">
         <v>0.44444444444444442</v>
@@ -1190,10 +1202,10 @@
         <v>21</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" s="5">
         <v>0.55208333333333337</v>
@@ -1232,10 +1244,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L15" s="5">
         <v>0.35416666666666669</v>
@@ -1274,10 +1286,10 @@
         <v>21</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" s="5">
         <v>0.44444444444444442</v>
@@ -1316,10 +1328,10 @@
         <v>21</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="5">
         <v>0.55208333333333337</v>
@@ -1358,10 +1370,10 @@
         <v>21</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="5">
         <v>0.35416666666666669</v>
@@ -1400,10 +1412,10 @@
         <v>21</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L19" s="5">
         <v>0.44444444444444442</v>
@@ -1421,10 +1433,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>18</v>
@@ -1441,8 +1453,8 @@
       <c r="I20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="4">
-        <v>7</v>
+      <c r="J20" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>20</v>
@@ -1463,10 +1475,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>18</v>
@@ -1484,7 +1496,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>20</v>
@@ -1505,10 +1517,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>18</v>
@@ -1526,7 +1538,7 @@
         <v>21</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>20</v>
@@ -1547,10 +1559,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>18</v>
@@ -1568,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L23" s="5">
         <v>0.35416666666666669</v>
@@ -1589,10 +1601,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>18</v>
@@ -1610,10 +1622,10 @@
         <v>21</v>
       </c>
       <c r="J24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L24" s="5">
         <v>0.44444444444444442</v>
@@ -1631,13 +1643,13 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="4">
         <v>1100</v>
@@ -1651,11 +1663,11 @@
       <c r="I25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="4">
-        <v>6</v>
+      <c r="J25" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L25" s="5">
         <v>0.55208333333333337</v>
@@ -1673,13 +1685,13 @@
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="4">
         <v>1100</v>
@@ -1693,11 +1705,11 @@
       <c r="I26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="4">
-        <v>6</v>
+      <c r="J26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L26" s="5">
         <v>0.60416666666666663</v>
@@ -1715,10 +1727,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>18</v>
@@ -1735,11 +1747,11 @@
       <c r="I27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="4">
-        <v>7</v>
+      <c r="J27" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L27" s="5">
         <v>0.35416666666666669</v>
@@ -1757,13 +1769,13 @@
         <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="4">
         <v>1060</v>
@@ -1777,11 +1789,11 @@
       <c r="I28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="4">
-        <v>8</v>
+      <c r="J28" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="5">
         <v>0.44444444444444442</v>
@@ -1799,13 +1811,13 @@
         <v>15</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="4">
         <v>2160</v>
@@ -1819,11 +1831,11 @@
       <c r="I29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="4">
-        <v>2</v>
+      <c r="J29" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L29" s="5">
         <v>0.4826388888888889</v>
@@ -1841,13 +1853,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F30" s="4">
         <v>2160</v>
@@ -1861,11 +1873,11 @@
       <c r="I30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="4">
-        <v>2</v>
+      <c r="J30" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L30" s="5">
         <v>0.55208333333333337</v>
@@ -1883,10 +1895,10 @@
         <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>18</v>
@@ -1904,10 +1916,10 @@
         <v>21</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L31" s="5">
         <v>0.35416666666666669</v>
@@ -1925,10 +1937,10 @@
         <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>18</v>
@@ -1946,10 +1958,10 @@
         <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L32" s="5">
         <v>0.44444444444444442</v>
@@ -1967,10 +1979,10 @@
         <v>15</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
@@ -1988,10 +2000,10 @@
         <v>21</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L33" s="5">
         <v>0.55208333333333337</v>
@@ -2009,10 +2021,10 @@
         <v>15</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>18</v>
@@ -2030,10 +2042,10 @@
         <v>21</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L34" s="5">
         <v>0.35416666666666669</v>
@@ -2051,10 +2063,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
@@ -2072,10 +2084,10 @@
         <v>21</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L35" s="5">
         <v>0.44444444444444442</v>
@@ -2093,10 +2105,10 @@
         <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>18</v>
@@ -2114,7 +2126,7 @@
         <v>19</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>20</v>
@@ -2135,10 +2147,10 @@
         <v>15</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>18</v>
@@ -2156,7 +2168,7 @@
         <v>19</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>20</v>
@@ -2177,10 +2189,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>18</v>
@@ -2198,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>20</v>
@@ -2219,13 +2231,13 @@
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" s="4">
         <v>1100</v>
@@ -2239,11 +2251,11 @@
       <c r="I39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="4">
-        <v>6</v>
+      <c r="J39" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" s="5">
         <v>0.35416666666666669</v>
@@ -2261,13 +2273,13 @@
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="4">
         <v>1100</v>
@@ -2281,11 +2293,11 @@
       <c r="I40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="4">
-        <v>6</v>
+      <c r="J40" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L40" s="5">
         <v>0.39583333333333331</v>
@@ -2303,10 +2315,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>18</v>
@@ -2324,10 +2336,10 @@
         <v>21</v>
       </c>
       <c r="J41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L41" s="5">
         <v>0.44444444444444442</v>
@@ -2345,10 +2357,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>18</v>
@@ -2366,10 +2378,10 @@
         <v>21</v>
       </c>
       <c r="J42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="L42" s="5">
         <v>0.55208333333333337</v>
@@ -2387,10 +2399,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>18</v>
@@ -2407,11 +2419,11 @@
       <c r="I43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="4">
-        <v>2</v>
+      <c r="J43" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L43" s="5">
         <v>0.35416666666666669</v>
@@ -2429,10 +2441,10 @@
         <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>18</v>
@@ -2450,10 +2462,10 @@
         <v>21</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L44" s="5">
         <v>0.44444444444444442</v>
@@ -2471,10 +2483,10 @@
         <v>15</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>18</v>
@@ -2492,10 +2504,10 @@
         <v>21</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L45" s="5">
         <v>0.55208333333333337</v>
@@ -2513,10 +2525,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>18</v>
@@ -2533,11 +2545,11 @@
       <c r="I46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="4">
-        <v>2</v>
+      <c r="J46" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L46" s="5">
         <v>0.35416666666666669</v>
@@ -2555,13 +2567,13 @@
         <v>15</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="4">
         <v>1060</v>
@@ -2575,11 +2587,11 @@
       <c r="I47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="4">
-        <v>8</v>
+      <c r="J47" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L47" s="5">
         <v>0.44444444444444442</v>
@@ -2597,13 +2609,13 @@
         <v>15</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" s="4">
         <v>2160</v>
@@ -2617,11 +2629,11 @@
       <c r="I48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="4">
-        <v>2</v>
+      <c r="J48" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L48" s="5">
         <v>0.4826388888888889</v>
@@ -2639,13 +2651,13 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="4">
         <v>2160</v>
@@ -2659,11 +2671,11 @@
       <c r="I49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="4">
-        <v>2</v>
+      <c r="J49" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L49" s="5">
         <v>0.55208333333333337</v>
@@ -2681,13 +2693,13 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" s="4">
         <v>2160</v>
@@ -2701,11 +2713,11 @@
       <c r="I50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="4">
-        <v>2</v>
+      <c r="J50" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L50" s="5">
         <v>0.60416666666666663</v>
@@ -2723,10 +2735,10 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>18</v>
@@ -2744,10 +2756,10 @@
         <v>19</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L51" s="5">
         <v>0.35416666666666669</v>
@@ -2765,10 +2777,10 @@
         <v>15</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>18</v>
@@ -2786,10 +2798,10 @@
         <v>19</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L52" s="5">
         <v>0.44444444444444442</v>
@@ -2809,7 +2821,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,8 +2934,8 @@
       <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="9">
-        <v>5</v>
+      <c r="J3" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>20</v>
@@ -2965,7 +2977,7 @@
         <v>21</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>20</v>
@@ -3007,7 +3019,7 @@
         <v>21</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>20</v>
@@ -3048,11 +3060,11 @@
       <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="13">
-        <v>5</v>
+      <c r="J6" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="14">
         <v>0.35416666666666669</v>
@@ -3091,10 +3103,10 @@
         <v>21</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="14">
         <v>0.44444444444444442</v>
@@ -3133,10 +3145,10 @@
         <v>21</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="14">
         <v>0.55208333333333337</v>
@@ -3175,10 +3187,10 @@
         <v>21</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" s="14">
         <v>0.35416666666666669</v>
@@ -3217,10 +3229,10 @@
         <v>21</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L10" s="14">
         <v>0.35416666666666669</v>
@@ -3259,10 +3271,10 @@
         <v>21</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L11" s="14">
         <v>0.44444444444444442</v>
@@ -3301,10 +3313,10 @@
         <v>21</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="14">
         <v>0.44444444444444442</v>
@@ -3343,10 +3355,10 @@
         <v>21</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="14">
         <v>0.55208333333333337</v>
@@ -3370,7 +3382,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="13">
         <v>1101</v>
@@ -3384,11 +3396,11 @@
       <c r="I14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="13">
-        <v>2</v>
+      <c r="J14" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="14">
         <v>0.44444444444444442</v>
@@ -3412,7 +3424,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="13">
         <v>1760</v>
@@ -3426,11 +3438,11 @@
       <c r="I15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="13">
-        <v>2</v>
+      <c r="J15" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="14">
         <v>0.4826388888888889</v>
@@ -3454,7 +3466,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="13">
         <v>1760</v>
@@ -3468,11 +3480,11 @@
       <c r="I16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="13">
-        <v>2</v>
+      <c r="J16" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" s="14">
         <v>0.55208333333333337</v>
@@ -3496,7 +3508,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="17">
         <v>1160</v>
@@ -3510,11 +3522,11 @@
       <c r="I17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="17">
-        <v>6</v>
+      <c r="J17" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L17" s="18">
         <v>0.35416666666666669</v>
@@ -3532,10 +3544,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>18</v>
@@ -3552,8 +3564,8 @@
       <c r="I18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="9">
-        <v>7</v>
+      <c r="J18" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>20</v>
@@ -3574,10 +3586,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>18</v>
@@ -3594,11 +3606,11 @@
       <c r="I19" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="13">
-        <v>7</v>
+      <c r="J19" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L19" s="14">
         <v>0.35416666666666669</v>
@@ -3616,10 +3628,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>18</v>
@@ -3637,7 +3649,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>20</v>
@@ -3658,10 +3670,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>18</v>
@@ -3679,7 +3691,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>20</v>
@@ -3700,10 +3712,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>18</v>
@@ -3721,10 +3733,10 @@
         <v>21</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" s="14">
         <v>0.35416666666666669</v>
@@ -3742,10 +3754,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>18</v>
@@ -3763,10 +3775,10 @@
         <v>21</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23" s="14">
         <v>0.44444444444444442</v>
@@ -3784,10 +3796,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>18</v>
@@ -3805,10 +3817,10 @@
         <v>21</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" s="14">
         <v>0.35416666666666669</v>
@@ -3826,10 +3838,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>18</v>
@@ -3847,10 +3859,10 @@
         <v>21</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L25" s="14">
         <v>0.44444444444444442</v>
@@ -3868,10 +3880,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>18</v>
@@ -3889,10 +3901,10 @@
         <v>21</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L26" s="14">
         <v>0.55208333333333337</v>
@@ -3910,10 +3922,10 @@
         <v>15</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>18</v>
@@ -3931,10 +3943,10 @@
         <v>21</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27" s="14">
         <v>0.35416666666666669</v>
@@ -3952,10 +3964,10 @@
         <v>15</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>18</v>
@@ -3973,10 +3985,10 @@
         <v>21</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L28" s="14">
         <v>0.44444444444444442</v>
@@ -3994,13 +4006,13 @@
         <v>15</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="13">
         <v>1180</v>
@@ -4014,11 +4026,11 @@
       <c r="I29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="13">
-        <v>6</v>
+      <c r="J29" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L29" s="14">
         <v>0.55208333333333337</v>
@@ -4036,13 +4048,13 @@
         <v>15</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="13">
         <v>1101</v>
@@ -4056,11 +4068,11 @@
       <c r="I30" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="13">
-        <v>2</v>
+      <c r="J30" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L30" s="14">
         <v>0.44444444444444442</v>
@@ -4078,13 +4090,13 @@
         <v>15</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" s="13">
         <v>1760</v>
@@ -4098,11 +4110,11 @@
       <c r="I31" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="13">
-        <v>2</v>
+      <c r="J31" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L31" s="14">
         <v>0.4826388888888889</v>
@@ -4120,13 +4132,13 @@
         <v>15</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="17">
         <v>1760</v>
@@ -4140,11 +4152,11 @@
       <c r="I32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J32" s="17">
-        <v>2</v>
+      <c r="J32" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L32" s="18">
         <v>0.55208333333333337</v>
@@ -4162,10 +4174,10 @@
         <v>15</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>18</v>
@@ -4182,8 +4194,8 @@
       <c r="I33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="9">
-        <v>2</v>
+      <c r="J33" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>20</v>
@@ -4204,10 +4216,10 @@
         <v>15</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>18</v>
@@ -4224,11 +4236,11 @@
       <c r="I34" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="13">
-        <v>2</v>
+      <c r="J34" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L34" s="14">
         <v>0.35416666666666669</v>
@@ -4246,10 +4258,10 @@
         <v>15</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>18</v>
@@ -4267,7 +4279,7 @@
         <v>21</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>20</v>
@@ -4288,10 +4300,10 @@
         <v>15</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>18</v>
@@ -4309,7 +4321,7 @@
         <v>21</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>20</v>
@@ -4330,10 +4342,10 @@
         <v>15</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>18</v>
@@ -4351,10 +4363,10 @@
         <v>21</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" s="14">
         <v>0.44444444444444442</v>
@@ -4372,10 +4384,10 @@
         <v>15</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>18</v>
@@ -4393,10 +4405,10 @@
         <v>21</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L38" s="14">
         <v>0.55208333333333337</v>
@@ -4414,10 +4426,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>18</v>
@@ -4435,10 +4447,10 @@
         <v>21</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L39" s="14">
         <v>0.35416666666666669</v>
@@ -4456,10 +4468,10 @@
         <v>15</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>18</v>
@@ -4477,10 +4489,10 @@
         <v>21</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L40" s="14">
         <v>0.44444444444444442</v>
@@ -4498,10 +4510,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>18</v>
@@ -4519,10 +4531,10 @@
         <v>21</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L41" s="14">
         <v>0.55208333333333337</v>
@@ -4540,10 +4552,10 @@
         <v>15</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>18</v>
@@ -4561,10 +4573,10 @@
         <v>21</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L42" s="14">
         <v>0.35416666666666669</v>
@@ -4582,10 +4594,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>18</v>
@@ -4603,10 +4615,10 @@
         <v>21</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L43" s="14">
         <v>0.44444444444444442</v>
@@ -4624,13 +4636,13 @@
         <v>15</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F44" s="13">
         <v>1320</v>
@@ -4644,11 +4656,11 @@
       <c r="I44" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="13">
-        <v>6</v>
+      <c r="J44" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L44" s="14">
         <v>0.35416666666666669</v>
@@ -4666,13 +4678,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="13">
         <v>1101</v>
@@ -4686,11 +4698,11 @@
       <c r="I45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J45" s="13">
-        <v>2</v>
+      <c r="J45" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L45" s="14">
         <v>0.44444444444444442</v>
@@ -4708,13 +4720,13 @@
         <v>15</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="13">
         <v>1760</v>
@@ -4728,11 +4740,11 @@
       <c r="I46" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J46" s="13">
-        <v>2</v>
+      <c r="J46" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L46" s="14">
         <v>0.4826388888888889</v>
@@ -4750,13 +4762,13 @@
         <v>15</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F47" s="17">
         <v>1760</v>
@@ -4770,11 +4782,11 @@
       <c r="I47" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="17">
-        <v>2</v>
+      <c r="J47" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L47" s="18">
         <v>0.55208333333333337</v>
